--- a/2016년 수강료 계산 6월/배드민턴1수강료.xlsx
+++ b/2016년 수강료 계산 6월/배드민턴1수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>*주야</t>
   </si>
@@ -268,34 +268,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1498,7 +1498,9 @@
         <f t="shared" si="0"/>
         <v>19370</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
